--- a/_data_/_plant_category_.xlsx
+++ b/_data_/_plant_category_.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBinT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\_c_sharp_\_dev_desktop_\FloraPlantStoreManagement\_data_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E76FE8-2ABF-4276-ACDF-EFD9DD56ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F095A-A342-4D15-A98A-4403DC71756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B0341BEA-C46B-47D2-A173-9CC1CC24FEFB}"/>
+    <workbookView xWindow="7905" yWindow="3765" windowWidth="28800" windowHeight="15345" xr2:uid="{B0341BEA-C46B-47D2-A173-9CC1CC24FEFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plant Category" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CategoryID</t>
   </si>
@@ -47,96 +47,6 @@
     <t>CategoryImages</t>
   </si>
   <si>
-    <t>Indoor Plants</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory01.png</t>
-  </si>
-  <si>
-    <t>Outdoor Plants</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory02.png</t>
-  </si>
-  <si>
-    <t>Flowering Plants</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory03.png</t>
-  </si>
-  <si>
-    <t>Succulents</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory04.png</t>
-  </si>
-  <si>
-    <t>Herbs</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory05.png</t>
-  </si>
-  <si>
-    <t>Fruit Trees</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory06.png</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory07.png</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory08.png</t>
-  </si>
-  <si>
-    <t>Climberss</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory09.png</t>
-  </si>
-  <si>
-    <t>Shrub</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory10.png</t>
-  </si>
-  <si>
-    <t>Aquatic plants</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory11.png</t>
-  </si>
-  <si>
-    <t>Annuals</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory12.png</t>
-  </si>
-  <si>
-    <t>Grasses</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory13.png</t>
-  </si>
-  <si>
-    <t>Mosses</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory14.png</t>
-  </si>
-  <si>
-    <t>Perennials</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory15.png</t>
-  </si>
-  <si>
     <t>Bryophyta</t>
   </si>
   <si>
@@ -164,9 +74,6 @@
     <t>Vascular Plants</t>
   </si>
   <si>
-    <t>Images/ProductTypes/ProductCategory21.png</t>
-  </si>
-  <si>
     <t>Angiosperms</t>
   </si>
   <si>
@@ -188,7 +95,10 @@
     <t>Sansevieria trifasciata</t>
   </si>
   <si>
-    <t>Images\ProductTypes\ProductCategory25.png</t>
+    <t>Images/ProductTypes/ProductCategory18.png</t>
+  </si>
+  <si>
+    <t>Images\ProductTypes\ProductCategory21.png</t>
   </si>
 </sst>
 </file>
@@ -603,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A30517B-3DBD-4B09-B84B-82C5414FD41C}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +539,7 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -640,7 +550,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -651,244 +561,79 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
         <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/_data_/_plant_category_.xlsx
+++ b/_data_/_plant_category_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\_c_sharp_\_dev_desktop_\FloraPlantStoreManagement\_data_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBinT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F095A-A342-4D15-A98A-4403DC71756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F60CD1A-FBA7-4245-847A-2666C1127395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7905" yWindow="3765" windowWidth="28800" windowHeight="15345" xr2:uid="{B0341BEA-C46B-47D2-A173-9CC1CC24FEFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CategoryID</t>
   </si>
@@ -50,55 +50,7 @@
     <t>Bryophyta</t>
   </si>
   <si>
-    <t>Images/ProductTypes/ProductCategory16.png</t>
-  </si>
-  <si>
-    <t>Cycadses</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory17.png</t>
-  </si>
-  <si>
-    <t>Gymnosperms</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory19.png</t>
-  </si>
-  <si>
-    <t>Hornwort</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory20.png</t>
-  </si>
-  <si>
-    <t>Vascular Plants</t>
-  </si>
-  <si>
-    <t>Angiosperms</t>
-  </si>
-  <si>
-    <t>Images\ProductTypes\ProductCategory22.png</t>
-  </si>
-  <si>
-    <t>Climbers</t>
-  </si>
-  <si>
-    <t>Images\ProductTypes\ProductCategory23.png</t>
-  </si>
-  <si>
-    <t>Pteridophyta</t>
-  </si>
-  <si>
-    <t>Images\ProductTypes\ProductCategory24.png</t>
-  </si>
-  <si>
-    <t>Sansevieria trifasciata</t>
-  </si>
-  <si>
-    <t>Images/ProductTypes/ProductCategory18.png</t>
-  </si>
-  <si>
-    <t>Images\ProductTypes\ProductCategory21.png</t>
+    <t>C:\Users\TBinT\Downloads\Images\PlantProduct01.png</t>
   </si>
 </sst>
 </file>
@@ -513,17 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A30517B-3DBD-4B09-B84B-82C5414FD41C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -548,94 +500,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
